--- a/xlsx/a69_f44_aUPPachuca.xlsx
+++ b/xlsx/a69_f44_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\1ER VoBo Página\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,10 +961,10 @@
         <v>2019</v>
       </c>
       <c r="B8" s="3">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="C8" s="3">
-        <v>43830</v>
+        <v>44012</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>

--- a/xlsx/a69_f44_aUPPachuca.xlsx
+++ b/xlsx/a69_f44_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -315,19 +315,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +648,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,41 +958,41 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>2019</v>
       </c>
-      <c r="B8" s="3">
-        <v>43831</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44012</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>44013</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="3">
-        <v>43840</v>
-      </c>
-      <c r="V8" s="3">
-        <v>43840</v>
-      </c>
-      <c r="W8" s="4" t="s">
+      <c r="U8" s="4">
+        <v>44206</v>
+      </c>
+      <c r="V8" s="4">
+        <v>44206</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1022,17 +1023,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1045,42 +1051,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>70</v>
       </c>
     </row>

--- a/xlsx/a69_f44_aUPPachuca.xlsx
+++ b/xlsx/a69_f44_aUPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -269,8 +269,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +286,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -317,30 +328,32 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,39 +382,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,166 +493,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -647,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +664,7 @@
     <col min="20" max="20" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="54.85546875" customWidth="1"/>
+    <col min="23" max="23" width="72.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -684,38 +673,38 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -860,31 +849,31 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -957,15 +946,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="4">
-        <v>44196</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -983,14 +972,14 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="5" t="s">
         <v>71</v>
       </c>
       <c r="U8" s="4">
-        <v>44206</v>
+        <v>44386</v>
       </c>
       <c r="V8" s="4">
-        <v>44206</v>
+        <v>44386</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>72</v>
@@ -1015,7 +1004,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1023,22 +1012,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1051,47 +1035,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
     </row>

--- a/xlsx/a69_f44_aUPPachuca.xlsx
+++ b/xlsx/a69_f44_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,10 +951,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44197</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="4">
-        <v>44377</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -976,10 +976,10 @@
         <v>71</v>
       </c>
       <c r="U8" s="4">
-        <v>44386</v>
+        <v>44571</v>
       </c>
       <c r="V8" s="4">
-        <v>44386</v>
+        <v>44571</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>72</v>

--- a/xlsx/a69_f44_aUPPachuca.xlsx
+++ b/xlsx/a69_f44_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -263,11 +258,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -626,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="U2" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,13 +945,13 @@
     </row>
     <row r="8" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -976,10 +973,10 @@
         <v>71</v>
       </c>
       <c r="U8" s="4">
-        <v>44571</v>
+        <v>44753</v>
       </c>
       <c r="V8" s="4">
-        <v>44571</v>
+        <v>44753</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>72</v>

--- a/xlsx/a69_f44_aUPPachuca.xlsx
+++ b/xlsx/a69_f44_aUPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <t>Otras</t>
   </si>
   <si>
-    <t>Secretaría Administrativa (UPP)</t>
+    <t>Subdirección de Recursos Financieros (UPP)</t>
   </si>
   <si>
     <t>De conformidad con el artículo 23 de las Normas de Desincorporación de Bienes de la Universidad Politécnica de Pachuca, se advierte: La convocante podrá llevar a cabo donaciones de todo tipo de bienes; sin embargo esta Casa de Estudios no ha realizado donaciones a favor de terceros.</t>
@@ -268,12 +268,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,17 +287,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE1E1E1"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -319,17 +315,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,15 +339,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -379,39 +381,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +448,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,142 +492,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -634,7 +660,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U2" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +687,7 @@
     <col min="20" max="20" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="72.140625" customWidth="1"/>
+    <col min="23" max="23" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
@@ -670,38 +696,38 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -846,31 +872,31 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -943,42 +969,42 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:23" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
-      <c r="B8" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="5" t="s">
+      <c r="B8" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="4">
-        <v>44753</v>
-      </c>
-      <c r="V8" s="4">
-        <v>44753</v>
-      </c>
-      <c r="W8" s="2" t="s">
+      <c r="U8" s="3">
+        <v>44936</v>
+      </c>
+      <c r="V8" s="3">
+        <v>44936</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -993,15 +1019,14 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D124">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R8:R201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R8:R124">
       <formula1>Hidden_217</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f44_aUPPachuca.xlsx
+++ b/xlsx/a69_f44_aUPPachuca.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A815018B-2D63-4069-99DF-2B3334060B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Hidden_1" sheetId="2" r:id="rId2"/>
     <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
+    <sheet name="Hidden_4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
-    <definedName name="Hidden_217">Hidden_2!$A$1:$A$7</definedName>
+    <definedName name="Hidden_28">Hidden_2!$A$1:$A$2</definedName>
+    <definedName name="Hidden_316">Hidden_3!$A$1:$A$3</definedName>
+    <definedName name="Hidden_419">Hidden_4!$A$1:$A$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>46798</t>
   </si>
@@ -91,6 +101,9 @@
     <t>397565</t>
   </si>
   <si>
+    <t>570786</t>
+  </si>
+  <si>
     <t>397566</t>
   </si>
   <si>
@@ -112,6 +125,9 @@
     <t>397573</t>
   </si>
   <si>
+    <t>570787</t>
+  </si>
+  <si>
     <t>397551</t>
   </si>
   <si>
@@ -163,6 +179,9 @@
     <t>Segundo apellido del beneficiario de la donación</t>
   </si>
   <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+  </si>
+  <si>
     <t>Nombre de la persona física facultada por el beneficiario para suscribir el contrato de donación</t>
   </si>
   <si>
@@ -175,13 +194,13 @@
     <t>Cargo que ocupa la persona facultada</t>
   </si>
   <si>
-    <t>Nombre(s) del servidor público facultado para suscribir el contrato</t>
-  </si>
-  <si>
-    <t>Primer apellido del servidor público facultado para suscribir el contrato</t>
-  </si>
-  <si>
-    <t>Segundo apellido del servidor público facultado para suscribir el contrato</t>
+    <t>Nombre(s) del/la servidor(a) público(a) facultado(a) para suscribir el contrato</t>
+  </si>
+  <si>
+    <t>Primer apellido del/la servidor(a) público(a) facultado(a) para suscribir el contrato</t>
+  </si>
+  <si>
+    <t>Segundo apellido del/la servidor(a) público(a) facultado(a) para suscribir el contrato</t>
   </si>
   <si>
     <t>Cargo o nombramiento del servidor público</t>
@@ -212,6 +231,15 @@
   </si>
   <si>
     <t>Persona moral</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Mujeres y Hombres</t>
   </si>
   <si>
     <t>Educativas</t>
@@ -244,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -258,13 +286,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -292,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -315,15 +341,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -333,6 +350,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -340,18 +358,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +461,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +513,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,63 +722,65 @@
     <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="43.140625" customWidth="1"/>
+    <col min="9" max="9" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -755,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -779,28 +830,34 @@
         <v>7</v>
       </c>
       <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>9</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>11</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>12</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>13</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -870,114 +927,128 @@
       <c r="W5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="X5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44926</v>
+        <v>62</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45107</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -995,22 +1066,24 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="V8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>72</v>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="X8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A6:Y6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1018,12 +1091,18 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D124">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R8:R124">
-      <formula1>Hidden_217</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>Hidden_28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8:Q201" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>Hidden_316</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T8:T201" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>Hidden_419</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1040,12 +1119,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1133,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1063,37 +1193,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
